--- a/assets/healthlease_startup_3mo_v1.2.xlsx
+++ b/assets/healthlease_startup_3mo_v1.2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiateliao/Google 雲端硬碟/EiMBA 財務報導/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFC12615-73CC-C74C-8BC4-56A35AC596D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="220" yWindow="760" windowWidth="28700" windowHeight="17540" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_說明" sheetId="1" r:id="rId1"/>
@@ -19,12 +25,25 @@
     <sheet name="9_多台設備參數表" sheetId="10" r:id="rId10"/>
     <sheet name="_month_list" sheetId="11" state="hidden" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="159">
   <si>
     <t>欄位</t>
   </si>
@@ -483,21 +502,43 @@
   </si>
   <si>
     <t>12個月合計</t>
+  </si>
+  <si>
+    <t>設備交機起租，5/20-5/31租金列應收</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀行撥款Long-term Debt 1200萬；支付OEM尾款14,400,000，設備達資本化條件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>資產</t>
+  </si>
+  <si>
+    <t>負債</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>股東權益</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>「損益表科目」（收入與費用），期末累積會反映於股東權益（保留盈餘）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -505,7 +546,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -513,19 +554,39 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF666666"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="PMingLiU"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,6 +602,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -580,23 +665,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -634,7 +741,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -668,6 +775,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -702,9 +810,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -877,12 +986,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -933,28 +1042,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="18" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="16" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" customWidth="1"/>
+    <col min="2" max="16" width="16.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="20">
       <c r="A1" s="2" t="s">
         <v>124</v>
       </c>
@@ -1021,7 +1131,7 @@
         <v>0.04</v>
       </c>
       <c r="C10" s="7">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1110,793 +1220,793 @@
     <row r="18" spans="1:16">
       <c r="A18" s="5">
         <f>EDATE($B$4,0)</f>
-        <v>0</v>
+        <v>43252</v>
       </c>
       <c r="B18" s="8">
-        <f>IF($A18&gt;=B$8,B$9,0)</f>
-        <v>0</v>
+        <f t="shared" ref="B18:B29" si="0">IF($A18&gt;=B$8,B$9,0)</f>
+        <v>600000</v>
       </c>
       <c r="C18" s="8">
-        <f>IF($A18&gt;=B$8,B$12,0)</f>
-        <v>0</v>
+        <f t="shared" ref="C18:C29" si="1">IF($A18&gt;=B$8,B$12,0)</f>
+        <v>60000</v>
       </c>
       <c r="D18" s="8">
-        <f>IF($A18&gt;=B$8,B$11*B$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" ref="D18:D29" si="2">IF($A18&gt;=B$8,B$11*B$10/12,0)</f>
+        <v>40000</v>
       </c>
       <c r="E18" s="8">
-        <f>IF($A18&gt;=B$8,B$11/(B$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" ref="E18:E29" si="3">IF($A18&gt;=B$8,B$11/(B$13*12),0)</f>
+        <v>200000</v>
       </c>
       <c r="F18" s="8">
-        <f>IF($A18&gt;=C$8,C$9,0)</f>
+        <f t="shared" ref="F18:F29" si="4">IF($A18&gt;=C$8,C$9,0)</f>
         <v>0</v>
       </c>
       <c r="G18" s="8">
-        <f>IF($A18&gt;=C$8,C$12,0)</f>
+        <f t="shared" ref="G18:G29" si="5">IF($A18&gt;=C$8,C$12,0)</f>
         <v>0</v>
       </c>
       <c r="H18" s="8">
-        <f>IF($A18&gt;=C$8,C$11*C$10/12,0)</f>
+        <f t="shared" ref="H18:H29" si="6">IF($A18&gt;=C$8,C$11*C$10/12,0)</f>
         <v>0</v>
       </c>
       <c r="I18" s="8">
-        <f>IF($A18&gt;=C$8,C$11/(C$13*12),0)</f>
+        <f t="shared" ref="I18:I29" si="7">IF($A18&gt;=C$8,C$11/(C$13*12),0)</f>
         <v>0</v>
       </c>
       <c r="J18" s="8">
-        <f>B18+F18</f>
-        <v>0</v>
+        <f t="shared" ref="J18:J29" si="8">B18+F18</f>
+        <v>600000</v>
       </c>
       <c r="K18" s="8">
-        <f>C18+G18</f>
-        <v>0</v>
+        <f t="shared" ref="K18:K29" si="9">C18+G18</f>
+        <v>60000</v>
       </c>
       <c r="L18" s="8">
-        <f>D18+H18</f>
-        <v>0</v>
+        <f t="shared" ref="L18:L29" si="10">D18+H18</f>
+        <v>40000</v>
       </c>
       <c r="M18" s="8">
-        <f>E18+I18</f>
-        <v>0</v>
+        <f t="shared" ref="M18:M29" si="11">E18+I18</f>
+        <v>200000</v>
       </c>
       <c r="N18" s="8">
-        <f>J18-K18</f>
-        <v>0</v>
+        <f t="shared" ref="N18:N29" si="12">J18-K18</f>
+        <v>540000</v>
       </c>
       <c r="O18" s="8">
-        <f>J18-K18-L18</f>
-        <v>0</v>
+        <f t="shared" ref="O18:O29" si="13">J18-K18-L18</f>
+        <v>500000</v>
       </c>
       <c r="P18" s="8">
-        <f>M18-L18</f>
-        <v>0</v>
+        <f t="shared" ref="P18:P29" si="14">M18-L18</f>
+        <v>160000</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="5">
         <f>EDATE($B$4,1)</f>
-        <v>0</v>
+        <v>43282</v>
       </c>
       <c r="B19" s="8">
-        <f>IF($A19&gt;=B$8,B$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>600000</v>
       </c>
       <c r="C19" s="8">
-        <f>IF($A19&gt;=B$8,B$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>60000</v>
       </c>
       <c r="D19" s="8">
-        <f>IF($A19&gt;=B$8,B$11*B$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>40000</v>
       </c>
       <c r="E19" s="8">
-        <f>IF($A19&gt;=B$8,B$11/(B$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>200000</v>
       </c>
       <c r="F19" s="8">
-        <f>IF($A19&gt;=C$8,C$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="G19" s="8">
-        <f>IF($A19&gt;=C$8,C$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>70000</v>
       </c>
       <c r="H19" s="8">
-        <f>IF($A19&gt;=C$8,C$11*C$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35000.000000000007</v>
       </c>
       <c r="I19" s="8">
-        <f>IF($A19&gt;=C$8,C$11/(C$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>200000</v>
       </c>
       <c r="J19" s="8">
-        <f>B19+F19</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1200000</v>
       </c>
       <c r="K19" s="8">
-        <f>C19+G19</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>130000</v>
       </c>
       <c r="L19" s="8">
-        <f>D19+H19</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>75000</v>
       </c>
       <c r="M19" s="8">
-        <f>E19+I19</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>400000</v>
       </c>
       <c r="N19" s="8">
-        <f>J19-K19</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1070000</v>
       </c>
       <c r="O19" s="8">
-        <f>J19-K19-L19</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>995000</v>
       </c>
       <c r="P19" s="8">
-        <f>M19-L19</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>325000</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="5">
         <f>EDATE($B$4,2)</f>
-        <v>0</v>
+        <v>43313</v>
       </c>
       <c r="B20" s="8">
-        <f>IF($A20&gt;=B$8,B$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>600000</v>
       </c>
       <c r="C20" s="8">
-        <f>IF($A20&gt;=B$8,B$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>60000</v>
       </c>
       <c r="D20" s="8">
-        <f>IF($A20&gt;=B$8,B$11*B$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>40000</v>
       </c>
       <c r="E20" s="8">
-        <f>IF($A20&gt;=B$8,B$11/(B$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>200000</v>
       </c>
       <c r="F20" s="8">
-        <f>IF($A20&gt;=C$8,C$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="G20" s="8">
-        <f>IF($A20&gt;=C$8,C$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>70000</v>
       </c>
       <c r="H20" s="8">
-        <f>IF($A20&gt;=C$8,C$11*C$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35000.000000000007</v>
       </c>
       <c r="I20" s="8">
-        <f>IF($A20&gt;=C$8,C$11/(C$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>200000</v>
       </c>
       <c r="J20" s="8">
-        <f>B20+F20</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1200000</v>
       </c>
       <c r="K20" s="8">
-        <f>C20+G20</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>130000</v>
       </c>
       <c r="L20" s="8">
-        <f>D20+H20</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>75000</v>
       </c>
       <c r="M20" s="8">
-        <f>E20+I20</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>400000</v>
       </c>
       <c r="N20" s="8">
-        <f>J20-K20</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1070000</v>
       </c>
       <c r="O20" s="8">
-        <f>J20-K20-L20</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>995000</v>
       </c>
       <c r="P20" s="8">
-        <f>M20-L20</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>325000</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="5">
         <f>EDATE($B$4,3)</f>
-        <v>0</v>
+        <v>43344</v>
       </c>
       <c r="B21" s="8">
-        <f>IF($A21&gt;=B$8,B$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>600000</v>
       </c>
       <c r="C21" s="8">
-        <f>IF($A21&gt;=B$8,B$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>60000</v>
       </c>
       <c r="D21" s="8">
-        <f>IF($A21&gt;=B$8,B$11*B$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>40000</v>
       </c>
       <c r="E21" s="8">
-        <f>IF($A21&gt;=B$8,B$11/(B$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>200000</v>
       </c>
       <c r="F21" s="8">
-        <f>IF($A21&gt;=C$8,C$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="G21" s="8">
-        <f>IF($A21&gt;=C$8,C$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>70000</v>
       </c>
       <c r="H21" s="8">
-        <f>IF($A21&gt;=C$8,C$11*C$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35000.000000000007</v>
       </c>
       <c r="I21" s="8">
-        <f>IF($A21&gt;=C$8,C$11/(C$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>200000</v>
       </c>
       <c r="J21" s="8">
-        <f>B21+F21</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1200000</v>
       </c>
       <c r="K21" s="8">
-        <f>C21+G21</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>130000</v>
       </c>
       <c r="L21" s="8">
-        <f>D21+H21</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>75000</v>
       </c>
       <c r="M21" s="8">
-        <f>E21+I21</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>400000</v>
       </c>
       <c r="N21" s="8">
-        <f>J21-K21</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1070000</v>
       </c>
       <c r="O21" s="8">
-        <f>J21-K21-L21</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>995000</v>
       </c>
       <c r="P21" s="8">
-        <f>M21-L21</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>325000</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="5">
         <f>EDATE($B$4,4)</f>
-        <v>0</v>
+        <v>43374</v>
       </c>
       <c r="B22" s="8">
-        <f>IF($A22&gt;=B$8,B$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>600000</v>
       </c>
       <c r="C22" s="8">
-        <f>IF($A22&gt;=B$8,B$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>60000</v>
       </c>
       <c r="D22" s="8">
-        <f>IF($A22&gt;=B$8,B$11*B$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>40000</v>
       </c>
       <c r="E22" s="8">
-        <f>IF($A22&gt;=B$8,B$11/(B$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>200000</v>
       </c>
       <c r="F22" s="8">
-        <f>IF($A22&gt;=C$8,C$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="G22" s="8">
-        <f>IF($A22&gt;=C$8,C$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>70000</v>
       </c>
       <c r="H22" s="8">
-        <f>IF($A22&gt;=C$8,C$11*C$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35000.000000000007</v>
       </c>
       <c r="I22" s="8">
-        <f>IF($A22&gt;=C$8,C$11/(C$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>200000</v>
       </c>
       <c r="J22" s="8">
-        <f>B22+F22</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1200000</v>
       </c>
       <c r="K22" s="8">
-        <f>C22+G22</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>130000</v>
       </c>
       <c r="L22" s="8">
-        <f>D22+H22</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>75000</v>
       </c>
       <c r="M22" s="8">
-        <f>E22+I22</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>400000</v>
       </c>
       <c r="N22" s="8">
-        <f>J22-K22</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1070000</v>
       </c>
       <c r="O22" s="8">
-        <f>J22-K22-L22</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>995000</v>
       </c>
       <c r="P22" s="8">
-        <f>M22-L22</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>325000</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="5">
         <f>EDATE($B$4,5)</f>
-        <v>0</v>
+        <v>43405</v>
       </c>
       <c r="B23" s="8">
-        <f>IF($A23&gt;=B$8,B$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>600000</v>
       </c>
       <c r="C23" s="8">
-        <f>IF($A23&gt;=B$8,B$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>60000</v>
       </c>
       <c r="D23" s="8">
-        <f>IF($A23&gt;=B$8,B$11*B$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>40000</v>
       </c>
       <c r="E23" s="8">
-        <f>IF($A23&gt;=B$8,B$11/(B$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>200000</v>
       </c>
       <c r="F23" s="8">
-        <f>IF($A23&gt;=C$8,C$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="G23" s="8">
-        <f>IF($A23&gt;=C$8,C$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>70000</v>
       </c>
       <c r="H23" s="8">
-        <f>IF($A23&gt;=C$8,C$11*C$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35000.000000000007</v>
       </c>
       <c r="I23" s="8">
-        <f>IF($A23&gt;=C$8,C$11/(C$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>200000</v>
       </c>
       <c r="J23" s="8">
-        <f>B23+F23</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1200000</v>
       </c>
       <c r="K23" s="8">
-        <f>C23+G23</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>130000</v>
       </c>
       <c r="L23" s="8">
-        <f>D23+H23</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>75000</v>
       </c>
       <c r="M23" s="8">
-        <f>E23+I23</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>400000</v>
       </c>
       <c r="N23" s="8">
-        <f>J23-K23</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1070000</v>
       </c>
       <c r="O23" s="8">
-        <f>J23-K23-L23</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>995000</v>
       </c>
       <c r="P23" s="8">
-        <f>M23-L23</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>325000</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="5">
         <f>EDATE($B$4,6)</f>
-        <v>0</v>
+        <v>43435</v>
       </c>
       <c r="B24" s="8">
-        <f>IF($A24&gt;=B$8,B$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>600000</v>
       </c>
       <c r="C24" s="8">
-        <f>IF($A24&gt;=B$8,B$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>60000</v>
       </c>
       <c r="D24" s="8">
-        <f>IF($A24&gt;=B$8,B$11*B$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>40000</v>
       </c>
       <c r="E24" s="8">
-        <f>IF($A24&gt;=B$8,B$11/(B$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>200000</v>
       </c>
       <c r="F24" s="8">
-        <f>IF($A24&gt;=C$8,C$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="G24" s="8">
-        <f>IF($A24&gt;=C$8,C$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>70000</v>
       </c>
       <c r="H24" s="8">
-        <f>IF($A24&gt;=C$8,C$11*C$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35000.000000000007</v>
       </c>
       <c r="I24" s="8">
-        <f>IF($A24&gt;=C$8,C$11/(C$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>200000</v>
       </c>
       <c r="J24" s="8">
-        <f>B24+F24</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1200000</v>
       </c>
       <c r="K24" s="8">
-        <f>C24+G24</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>130000</v>
       </c>
       <c r="L24" s="8">
-        <f>D24+H24</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>75000</v>
       </c>
       <c r="M24" s="8">
-        <f>E24+I24</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>400000</v>
       </c>
       <c r="N24" s="8">
-        <f>J24-K24</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1070000</v>
       </c>
       <c r="O24" s="8">
-        <f>J24-K24-L24</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>995000</v>
       </c>
       <c r="P24" s="8">
-        <f>M24-L24</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>325000</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="5">
         <f>EDATE($B$4,7)</f>
-        <v>0</v>
+        <v>43466</v>
       </c>
       <c r="B25" s="8">
-        <f>IF($A25&gt;=B$8,B$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>600000</v>
       </c>
       <c r="C25" s="8">
-        <f>IF($A25&gt;=B$8,B$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>60000</v>
       </c>
       <c r="D25" s="8">
-        <f>IF($A25&gt;=B$8,B$11*B$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>40000</v>
       </c>
       <c r="E25" s="8">
-        <f>IF($A25&gt;=B$8,B$11/(B$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>200000</v>
       </c>
       <c r="F25" s="8">
-        <f>IF($A25&gt;=C$8,C$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="G25" s="8">
-        <f>IF($A25&gt;=C$8,C$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>70000</v>
       </c>
       <c r="H25" s="8">
-        <f>IF($A25&gt;=C$8,C$11*C$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35000.000000000007</v>
       </c>
       <c r="I25" s="8">
-        <f>IF($A25&gt;=C$8,C$11/(C$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>200000</v>
       </c>
       <c r="J25" s="8">
-        <f>B25+F25</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1200000</v>
       </c>
       <c r="K25" s="8">
-        <f>C25+G25</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>130000</v>
       </c>
       <c r="L25" s="8">
-        <f>D25+H25</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>75000</v>
       </c>
       <c r="M25" s="8">
-        <f>E25+I25</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>400000</v>
       </c>
       <c r="N25" s="8">
-        <f>J25-K25</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1070000</v>
       </c>
       <c r="O25" s="8">
-        <f>J25-K25-L25</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>995000</v>
       </c>
       <c r="P25" s="8">
-        <f>M25-L25</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>325000</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="5">
         <f>EDATE($B$4,8)</f>
-        <v>0</v>
+        <v>43497</v>
       </c>
       <c r="B26" s="8">
-        <f>IF($A26&gt;=B$8,B$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>600000</v>
       </c>
       <c r="C26" s="8">
-        <f>IF($A26&gt;=B$8,B$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>60000</v>
       </c>
       <c r="D26" s="8">
-        <f>IF($A26&gt;=B$8,B$11*B$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>40000</v>
       </c>
       <c r="E26" s="8">
-        <f>IF($A26&gt;=B$8,B$11/(B$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>200000</v>
       </c>
       <c r="F26" s="8">
-        <f>IF($A26&gt;=C$8,C$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="G26" s="8">
-        <f>IF($A26&gt;=C$8,C$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>70000</v>
       </c>
       <c r="H26" s="8">
-        <f>IF($A26&gt;=C$8,C$11*C$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35000.000000000007</v>
       </c>
       <c r="I26" s="8">
-        <f>IF($A26&gt;=C$8,C$11/(C$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>200000</v>
       </c>
       <c r="J26" s="8">
-        <f>B26+F26</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1200000</v>
       </c>
       <c r="K26" s="8">
-        <f>C26+G26</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>130000</v>
       </c>
       <c r="L26" s="8">
-        <f>D26+H26</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>75000</v>
       </c>
       <c r="M26" s="8">
-        <f>E26+I26</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>400000</v>
       </c>
       <c r="N26" s="8">
-        <f>J26-K26</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1070000</v>
       </c>
       <c r="O26" s="8">
-        <f>J26-K26-L26</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>995000</v>
       </c>
       <c r="P26" s="8">
-        <f>M26-L26</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>325000</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="5">
         <f>EDATE($B$4,9)</f>
-        <v>0</v>
+        <v>43525</v>
       </c>
       <c r="B27" s="8">
-        <f>IF($A27&gt;=B$8,B$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>600000</v>
       </c>
       <c r="C27" s="8">
-        <f>IF($A27&gt;=B$8,B$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>60000</v>
       </c>
       <c r="D27" s="8">
-        <f>IF($A27&gt;=B$8,B$11*B$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>40000</v>
       </c>
       <c r="E27" s="8">
-        <f>IF($A27&gt;=B$8,B$11/(B$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>200000</v>
       </c>
       <c r="F27" s="8">
-        <f>IF($A27&gt;=C$8,C$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="G27" s="8">
-        <f>IF($A27&gt;=C$8,C$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>70000</v>
       </c>
       <c r="H27" s="8">
-        <f>IF($A27&gt;=C$8,C$11*C$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35000.000000000007</v>
       </c>
       <c r="I27" s="8">
-        <f>IF($A27&gt;=C$8,C$11/(C$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>200000</v>
       </c>
       <c r="J27" s="8">
-        <f>B27+F27</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1200000</v>
       </c>
       <c r="K27" s="8">
-        <f>C27+G27</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>130000</v>
       </c>
       <c r="L27" s="8">
-        <f>D27+H27</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>75000</v>
       </c>
       <c r="M27" s="8">
-        <f>E27+I27</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>400000</v>
       </c>
       <c r="N27" s="8">
-        <f>J27-K27</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1070000</v>
       </c>
       <c r="O27" s="8">
-        <f>J27-K27-L27</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>995000</v>
       </c>
       <c r="P27" s="8">
-        <f>M27-L27</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>325000</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="5">
         <f>EDATE($B$4,10)</f>
-        <v>0</v>
+        <v>43556</v>
       </c>
       <c r="B28" s="8">
-        <f>IF($A28&gt;=B$8,B$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>600000</v>
       </c>
       <c r="C28" s="8">
-        <f>IF($A28&gt;=B$8,B$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>60000</v>
       </c>
       <c r="D28" s="8">
-        <f>IF($A28&gt;=B$8,B$11*B$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>40000</v>
       </c>
       <c r="E28" s="8">
-        <f>IF($A28&gt;=B$8,B$11/(B$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>200000</v>
       </c>
       <c r="F28" s="8">
-        <f>IF($A28&gt;=C$8,C$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="G28" s="8">
-        <f>IF($A28&gt;=C$8,C$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>70000</v>
       </c>
       <c r="H28" s="8">
-        <f>IF($A28&gt;=C$8,C$11*C$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35000.000000000007</v>
       </c>
       <c r="I28" s="8">
-        <f>IF($A28&gt;=C$8,C$11/(C$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>200000</v>
       </c>
       <c r="J28" s="8">
-        <f>B28+F28</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1200000</v>
       </c>
       <c r="K28" s="8">
-        <f>C28+G28</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>130000</v>
       </c>
       <c r="L28" s="8">
-        <f>D28+H28</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>75000</v>
       </c>
       <c r="M28" s="8">
-        <f>E28+I28</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>400000</v>
       </c>
       <c r="N28" s="8">
-        <f>J28-K28</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1070000</v>
       </c>
       <c r="O28" s="8">
-        <f>J28-K28-L28</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>995000</v>
       </c>
       <c r="P28" s="8">
-        <f>M28-L28</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>325000</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="5">
         <f>EDATE($B$4,11)</f>
-        <v>0</v>
+        <v>43586</v>
       </c>
       <c r="B29" s="8">
-        <f>IF($A29&gt;=B$8,B$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>600000</v>
       </c>
       <c r="C29" s="8">
-        <f>IF($A29&gt;=B$8,B$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>60000</v>
       </c>
       <c r="D29" s="8">
-        <f>IF($A29&gt;=B$8,B$11*B$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>40000</v>
       </c>
       <c r="E29" s="8">
-        <f>IF($A29&gt;=B$8,B$11/(B$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>200000</v>
       </c>
       <c r="F29" s="8">
-        <f>IF($A29&gt;=C$8,C$9,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="G29" s="8">
-        <f>IF($A29&gt;=C$8,C$12,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>70000</v>
       </c>
       <c r="H29" s="8">
-        <f>IF($A29&gt;=C$8,C$11*C$10/12,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>35000.000000000007</v>
       </c>
       <c r="I29" s="8">
-        <f>IF($A29&gt;=C$8,C$11/(C$13*12),0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>200000</v>
       </c>
       <c r="J29" s="8">
-        <f>B29+F29</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1200000</v>
       </c>
       <c r="K29" s="8">
-        <f>C29+G29</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>130000</v>
       </c>
       <c r="L29" s="8">
-        <f>D29+H29</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>75000</v>
       </c>
       <c r="M29" s="8">
-        <f>E29+I29</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>400000</v>
       </c>
       <c r="N29" s="8">
-        <f>J29-K29</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1070000</v>
       </c>
       <c r="O29" s="8">
-        <f>J29-K29-L29</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>995000</v>
       </c>
       <c r="P29" s="8">
-        <f>M29-L29</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>325000</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1904,86 +2014,96 @@
         <v>152</v>
       </c>
       <c r="B31" s="8">
-        <f>SUM(B18:B29)</f>
-        <v>0</v>
+        <f t="shared" ref="B31:P31" si="15">SUM(B18:B29)</f>
+        <v>7200000</v>
       </c>
       <c r="C31" s="8">
-        <f>SUM(C18:C29)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>720000</v>
       </c>
       <c r="D31" s="8">
-        <f>SUM(D18:D29)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>480000</v>
       </c>
       <c r="E31" s="8">
-        <f>SUM(E18:E29)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>2400000</v>
       </c>
       <c r="F31" s="8">
-        <f>SUM(F18:F29)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>6600000</v>
       </c>
       <c r="G31" s="8">
-        <f>SUM(G18:G29)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>770000</v>
       </c>
       <c r="H31" s="8">
-        <f>SUM(H18:H29)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>385000.00000000006</v>
       </c>
       <c r="I31" s="8">
-        <f>SUM(I18:I29)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>2200000</v>
       </c>
       <c r="J31" s="8">
-        <f>SUM(J18:J29)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>13800000</v>
       </c>
       <c r="K31" s="8">
-        <f>SUM(K18:K29)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1490000</v>
       </c>
       <c r="L31" s="8">
-        <f>SUM(L18:L29)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>865000</v>
       </c>
       <c r="M31" s="8">
-        <f>SUM(M18:M29)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4600000</v>
       </c>
       <c r="N31" s="8">
-        <f>SUM(N18:N29)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>12310000</v>
       </c>
       <c r="O31" s="8">
-        <f>SUM(O18:O29)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>11445000</v>
       </c>
       <c r="P31" s="8">
-        <f>SUM(P18:P29)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>3735000</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:C8">
-      <formula1>_month_list!$A$1:$A$24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:C10">
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:C10" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>"0.03,0.035,0.04,0.045,0.05"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000000000000}">
+          <x14:formula1>
+            <xm:f>_month_list!$A$1:$A$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B8:C8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5">
@@ -2106,17 +2226,24 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="26.796875" customWidth="1"/>
+    <col min="3" max="3" width="84.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -2258,7 +2385,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2438,979 +2565,958 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R36" sqref="I36:R36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.3984375" customWidth="1"/>
+    <col min="9" max="9" width="16.796875" customWidth="1"/>
+    <col min="11" max="11" width="19.796875" customWidth="1"/>
+    <col min="12" max="12" width="18.19921875" customWidth="1"/>
+    <col min="13" max="13" width="20.19921875" customWidth="1"/>
+    <col min="14" max="14" width="18.19921875" customWidth="1"/>
+    <col min="15" max="15" width="17.3984375" customWidth="1"/>
+    <col min="16" max="16" width="17.19921875" customWidth="1"/>
+    <col min="17" max="17" width="18.19921875" customWidth="1"/>
+    <col min="18" max="18" width="21" customWidth="1"/>
+    <col min="19" max="19" width="18.19921875" customWidth="1"/>
+    <col min="20" max="20" width="17.59765625" customWidth="1"/>
+    <col min="21" max="21" width="15.796875" customWidth="1"/>
+    <col min="22" max="22" width="14.59765625" customWidth="1"/>
+    <col min="23" max="23" width="18.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" ht="22">
+      <c r="D1" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q2" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W2" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2">
+    <row r="3" spans="1:23">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>12000000</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>12000000</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>-300000</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>200000</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>100000</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>-480000</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>480000</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>-3600000</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>3600000</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>-360000</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>360000</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>-300000</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>300000</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>47</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>-150000</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>150000</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>48</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>100000</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>100000</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>200000</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>49</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>-35000</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>35000</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11">
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>50</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>-100000</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>100000</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>-480000</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>480000</v>
       </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13">
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>-2400000</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>14400000</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>12000000</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>53</v>
-      </c>
-      <c r="D14">
-        <v>-300000</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>300000</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
       </c>
       <c r="D15">
         <v>-300000</v>
@@ -3425,14 +3531,11 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
         <v>0</v>
       </c>
@@ -3452,988 +3555,1148 @@
         <v>0</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>-300000</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>300000</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16">
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>55</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>600000</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>600000</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="C18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>240000</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>240000</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>150000</v>
       </c>
-      <c r="J18">
+      <c r="K19">
         <v>150000</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>-45000</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <v>45000</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20">
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>59</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>-100000</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>100000</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>60</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>-320000</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>320000</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22">
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>61</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>-360000</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>360000</v>
       </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23">
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>62</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>600000</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>600000</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>63</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>-150000</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>-150000</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>64</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>-60000</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
         <v>60000</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
-      <c r="A26">
+    <row r="27" spans="1:23">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>65</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>240000</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>-240000</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="A27">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>40</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>66</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>-80000</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
         <v>80000</v>
       </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28">
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29">
         <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28">
-        <v>100000</v>
-      </c>
-      <c r="E28">
-        <v>-100000</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29">
-        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29">
+        <v>100000</v>
+      </c>
+      <c r="E29">
+        <v>-100000</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
         <v>68</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>-50000</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
         <v>50000</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="D32">
+        <f>SUM(D3:D30)</f>
+        <v>3070000</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32:W32" si="0">SUM(E3:E30)</f>
+        <v>600000</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>480000</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>18300000</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>600000</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>840000</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>920000</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="0"/>
+        <v>1200000</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>130000</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="0"/>
+        <v>60000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="44.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -4534,17 +4797,24 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="18.19921875" customWidth="1"/>
+    <col min="2" max="2" width="25.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -4602,18 +4872,31 @@
         <v>150000</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="B9">
+        <f>SUM(B2:B7)</f>
+        <v>22800000</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="26.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -4647,18 +4930,31 @@
         <v>12000000</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="B6">
+        <f>SUM(B2:B4)</f>
+        <v>12600000</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="17.3984375" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -4684,18 +4980,30 @@
         <v>-1800000</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="B7">
+        <f>SUM(B2:B3)</f>
+        <v>10200000</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="26.796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -4738,17 +5046,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="27.59765625" customWidth="1"/>
+    <col min="2" max="2" width="32.3984375" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="22.59765625" customWidth="1"/>
+    <col min="5" max="5" width="42.796875" customWidth="1"/>
+    <col min="6" max="6" width="20.19921875" customWidth="1"/>
+    <col min="7" max="7" width="22.59765625" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="23.59765625" customWidth="1"/>
+    <col min="11" max="11" width="22.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -5731,6 +6055,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>